--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2203383.007414611</v>
+        <v>2202817.978516765</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>75.79903779981338</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.456294006069004</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.08148512872441</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>58.01302635684331</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>278.2270124820743</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.4753625005199</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>80.17982466178766</v>
       </c>
       <c r="V7" t="n">
-        <v>73.87855786310634</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1141,7 +1141,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.18212589108353</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>359.4517564492933</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>105.6319392430749</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1426,7 +1426,7 @@
         <v>217.5676782221669</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6246176045979</v>
+        <v>256.6246176045983</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1530,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>71.70119226443482</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,7 +1545,7 @@
         <v>163.904736120809</v>
       </c>
       <c r="H13" t="n">
-        <v>138.2308586634205</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.82658209520383</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.1152255545954</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>133.7999520296036</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1660,10 +1660,10 @@
         <v>81.25952383038323</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5676782221669</v>
+        <v>217.5676782221665</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6246176045979</v>
+        <v>256.6246176045997</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1782,10 +1782,10 @@
         <v>163.904736120809</v>
       </c>
       <c r="H16" t="n">
-        <v>138.2308586634205</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.85233927143186</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.82658209520383</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.1152255545954</v>
+        <v>47.97734046427782</v>
       </c>
       <c r="T16" t="n">
         <v>243.2897949691278</v>
       </c>
       <c r="U16" t="n">
-        <v>205.6852881525822</v>
+        <v>275.6470002246827</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1861,7 +1861,7 @@
         <v>397.3155774185313</v>
       </c>
       <c r="H17" t="n">
-        <v>285.539625067621</v>
+        <v>285.5396250676227</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.1152255545954</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.2897949691278</v>
+        <v>66.18393749855322</v>
       </c>
       <c r="U19" t="n">
         <v>275.6470002246827</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>61.76048535546983</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>81.25952383038323</v>
+        <v>81.25952383038523</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5676782221665</v>
+        <v>217.5676782221669</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6246176045988</v>
+        <v>256.6246176045983</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2250,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>45.97551631233927</v>
       </c>
       <c r="G22" t="n">
         <v>163.904736120809</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>19.82658209520383</v>
       </c>
       <c r="S22" t="n">
-        <v>47.97734046427782</v>
+        <v>157.1152255545954</v>
       </c>
       <c r="T22" t="n">
         <v>243.2897949691278</v>
@@ -2371,10 +2371,10 @@
         <v>81.25952383038323</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5676782221683</v>
+        <v>217.5676782221669</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6246176045983</v>
+        <v>256.6246176045988</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>61.69820931128925</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.904736120809</v>
+        <v>54.76685103049094</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>8.779324184461034</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.904736120809</v>
       </c>
       <c r="H28" t="n">
-        <v>138.2308586634205</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.85233927143186</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.1152255545954</v>
+        <v>47.97734046427782</v>
       </c>
       <c r="T28" t="n">
         <v>243.2897949691278</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>58.92253862145211</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>47.97734046427782</v>
+        <v>157.1152255545954</v>
       </c>
       <c r="T31" t="n">
         <v>243.2897949691278</v>
@@ -3322,7 +3322,7 @@
         <v>217.5676782221669</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6246176045997</v>
+        <v>256.6246176045983</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.904736120809</v>
+        <v>54.76685103049097</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.85233927143186</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.1152255545954</v>
       </c>
       <c r="T37" t="n">
-        <v>204.4147961619739</v>
+        <v>243.2897949691278</v>
       </c>
       <c r="U37" t="n">
         <v>275.6470002246827</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.25952383038523</v>
+        <v>81.25952383038323</v>
       </c>
       <c r="T38" t="n">
         <v>217.5676782221669</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6246176045983</v>
+        <v>256.6246176045997</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>54.76685103049094</v>
+        <v>163.904736120809</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.2308586634205</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>75.80508136068887</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.82658209520383</v>
       </c>
       <c r="S40" t="n">
         <v>157.1152255545954</v>
@@ -3757,7 +3757,7 @@
         <v>397.3155774185313</v>
       </c>
       <c r="H41" t="n">
-        <v>285.5396250676227</v>
+        <v>285.539625067621</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.25952383038323</v>
+        <v>81.25952383038343</v>
       </c>
       <c r="T41" t="n">
         <v>217.5676782221669</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6246176045983</v>
+        <v>256.6246176045988</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.99824139045566</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.82658209520383</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.1152255545954</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.2897949691278</v>
+        <v>66.18393749855322</v>
       </c>
       <c r="U43" t="n">
         <v>275.6470002246827</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773018</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4033,7 +4033,7 @@
         <v>217.5676782221669</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6246176045983</v>
+        <v>256.6246176045988</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.904736120809</v>
+        <v>54.76685103049094</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>47.97734046427782</v>
+        <v>157.1152255545954</v>
       </c>
       <c r="T46" t="n">
         <v>243.2897949691278</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.044874488545</v>
+        <v>991.498727323736</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.942805712373</v>
+        <v>562.9170530610044</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.073424927221</v>
+        <v>134.3353787982727</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.33908412592</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1693.692224013681</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1274.549760592992</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.304040933049</v>
+        <v>1013.75789376824</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.2298803720686</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C4" t="n">
-        <v>433.2298803720686</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D4" t="n">
-        <v>433.2298803720686</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2298803720686</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,19 +4494,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>958.7861344791625</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4527,13 +4527,13 @@
         <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>646.6572682637131</v>
       </c>
       <c r="X4" t="n">
-        <v>433.2298803720686</v>
+        <v>401.2655135971256</v>
       </c>
       <c r="Y4" t="n">
-        <v>433.2298803720686</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>400.4118020839784</v>
       </c>
       <c r="C5" t="n">
         <v>119.3744157384487</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>830.9570922288287</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>826.7113725688862</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="M6" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="N6" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="O6" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="P6" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.9021756729128</v>
+        <v>770.4167823767687</v>
       </c>
       <c r="C7" t="n">
-        <v>685.9021756729128</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1189.655071781648</v>
       </c>
       <c r="V7" t="n">
-        <v>1622.558624158088</v>
+        <v>1189.655071781648</v>
       </c>
       <c r="W7" t="n">
-        <v>1350.532219744379</v>
+        <v>1189.655071781648</v>
       </c>
       <c r="X7" t="n">
-        <v>1105.140465077792</v>
+        <v>1189.655071781648</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.7207943919</v>
+        <v>962.2354010957558</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
         <v>77.64503145187676</v>
@@ -4807,19 +4807,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.0196728252577</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2541.944076608442</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2296.064630186897</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2017.631629440002</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1730.676121310433</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1458.649716896724</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1213.257962230137</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>985.8382915442448</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1219.818326073108</v>
       </c>
       <c r="F11" t="n">
-        <v>791.9508964823162</v>
+        <v>791.9508964823167</v>
       </c>
       <c r="G11" t="n">
-        <v>390.6220304029908</v>
+        <v>390.6220304029912</v>
       </c>
       <c r="H11" t="n">
         <v>102.1981666983232</v>
@@ -5041,25 +5041,25 @@
         <v>104.3955462483357</v>
       </c>
       <c r="J11" t="n">
-        <v>110.132408125637</v>
+        <v>545.3870955785549</v>
       </c>
       <c r="K11" t="n">
-        <v>704.639944868385</v>
+        <v>1388.33545636278</v>
       </c>
       <c r="L11" t="n">
-        <v>1790.36657579321</v>
+        <v>2474.062087287605</v>
       </c>
       <c r="M11" t="n">
-        <v>2959.283130697573</v>
+        <v>2485.930806981417</v>
       </c>
       <c r="N11" t="n">
-        <v>4097.074882120842</v>
+        <v>2722.266221328852</v>
       </c>
       <c r="O11" t="n">
-        <v>5088.64318989799</v>
+        <v>3713.834529106</v>
       </c>
       <c r="P11" t="n">
-        <v>5098.363131682502</v>
+        <v>4551.864345723909</v>
       </c>
       <c r="Q11" t="n">
         <v>5105.662403165764</v>
@@ -5068,10 +5068,10 @@
         <v>5109.908334916158</v>
       </c>
       <c r="S11" t="n">
-        <v>5027.828007814761</v>
+        <v>5027.828007814762</v>
       </c>
       <c r="T11" t="n">
-        <v>4808.062676277219</v>
+        <v>4808.06267627722</v>
       </c>
       <c r="U11" t="n">
         <v>4548.845890818029</v>
@@ -5120,25 +5120,25 @@
         <v>129.5070076651294</v>
       </c>
       <c r="J12" t="n">
-        <v>132.9238432978117</v>
+        <v>457.4821682640241</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7637596196382</v>
+        <v>1057.501826339783</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.159296615874</v>
+        <v>1065.354314524916</v>
       </c>
       <c r="M12" t="n">
-        <v>1110.322779949984</v>
+        <v>1074.517797859025</v>
       </c>
       <c r="N12" t="n">
-        <v>1624.662749962269</v>
+        <v>1083.923811330193</v>
       </c>
       <c r="O12" t="n">
-        <v>1633.267414674497</v>
+        <v>1092.528476042422</v>
       </c>
       <c r="P12" t="n">
-        <v>1640.173416706702</v>
+        <v>1099.434478074627</v>
       </c>
       <c r="Q12" t="n">
         <v>1644.789896176253</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.3961297458163</v>
+        <v>952.6632683170508</v>
       </c>
       <c r="C13" t="n">
-        <v>749.970683014064</v>
+        <v>780.1015568002757</v>
       </c>
       <c r="D13" t="n">
-        <v>584.0926902155867</v>
+        <v>614.2235640017984</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0926902155867</v>
+        <v>444.4655602525356</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3856361773429</v>
+        <v>267.7585062142918</v>
       </c>
       <c r="G13" t="n">
-        <v>241.8252966613742</v>
+        <v>102.1981666983232</v>
       </c>
       <c r="H13" t="n">
         <v>102.1981666983232</v>
@@ -5223,28 +5223,28 @@
         <v>2748.915766000571</v>
       </c>
       <c r="R13" t="n">
-        <v>2728.888915399355</v>
+        <v>2748.915766000571</v>
       </c>
       <c r="S13" t="n">
-        <v>2570.18666736441</v>
+        <v>2590.213517965626</v>
       </c>
       <c r="T13" t="n">
-        <v>2324.439399718826</v>
+        <v>2344.466250320042</v>
       </c>
       <c r="U13" t="n">
-        <v>2046.008086360561</v>
+        <v>2066.034936961777</v>
       </c>
       <c r="V13" t="n">
-        <v>1759.052578230991</v>
+        <v>1779.079428832207</v>
       </c>
       <c r="W13" t="n">
-        <v>1487.026173817283</v>
+        <v>1507.053024418499</v>
       </c>
       <c r="X13" t="n">
-        <v>1241.634419150695</v>
+        <v>1371.90155772193</v>
       </c>
       <c r="Y13" t="n">
-        <v>1014.214748464804</v>
+        <v>1144.481887036038</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>2089.502855740368</v>
       </c>
       <c r="D14" t="n">
-        <v>1653.593070914813</v>
+        <v>1653.593070914812</v>
       </c>
       <c r="E14" t="n">
         <v>1219.818326073108</v>
@@ -5278,52 +5278,52 @@
         <v>104.3955462483357</v>
       </c>
       <c r="J14" t="n">
-        <v>110.132408125637</v>
+        <v>478.2810504608989</v>
       </c>
       <c r="K14" t="n">
-        <v>953.0807689098626</v>
+        <v>486.8791192869466</v>
       </c>
       <c r="L14" t="n">
-        <v>2038.807399834687</v>
+        <v>1572.605750211771</v>
       </c>
       <c r="M14" t="n">
-        <v>3207.72395473905</v>
+        <v>1584.474469905584</v>
       </c>
       <c r="N14" t="n">
-        <v>4345.515706162319</v>
+        <v>2722.266221328853</v>
       </c>
       <c r="O14" t="n">
-        <v>5088.64318989799</v>
+        <v>3713.834529106001</v>
       </c>
       <c r="P14" t="n">
-        <v>5098.363131682502</v>
+        <v>4551.86434572391</v>
       </c>
       <c r="Q14" t="n">
-        <v>5105.662403165764</v>
+        <v>5105.662403165765</v>
       </c>
       <c r="R14" t="n">
-        <v>5109.908334916158</v>
+        <v>5109.908334916159</v>
       </c>
       <c r="S14" t="n">
-        <v>5027.828007814761</v>
+        <v>5027.828007814762</v>
       </c>
       <c r="T14" t="n">
-        <v>4808.062676277219</v>
+        <v>4808.06267627722</v>
       </c>
       <c r="U14" t="n">
-        <v>4548.845890818029</v>
+        <v>4548.845890818028</v>
       </c>
       <c r="V14" t="n">
-        <v>4186.228940751856</v>
+        <v>4186.228940751855</v>
       </c>
       <c r="W14" t="n">
-        <v>3781.373486162889</v>
+        <v>3781.373486162888</v>
       </c>
       <c r="X14" t="n">
         <v>3362.231022742199</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.944899041853</v>
+        <v>2953.944899041852</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>607.9766387076666</v>
+        <v>607.9766387076667</v>
       </c>
       <c r="C15" t="n">
         <v>501.5201775443089</v>
       </c>
       <c r="D15" t="n">
-        <v>406.4298886908621</v>
+        <v>406.4298886908622</v>
       </c>
       <c r="E15" t="n">
-        <v>312.3094740178158</v>
+        <v>312.3094740178159</v>
       </c>
       <c r="F15" t="n">
         <v>228.9256356339775</v>
@@ -5354,28 +5354,28 @@
         <v>102.1981666983232</v>
       </c>
       <c r="I15" t="n">
-        <v>103.4433345046718</v>
+        <v>129.5070076651294</v>
       </c>
       <c r="J15" t="n">
-        <v>431.4184951035664</v>
+        <v>457.4821682640241</v>
       </c>
       <c r="K15" t="n">
-        <v>778.5175984926603</v>
+        <v>463.3220845858506</v>
       </c>
       <c r="L15" t="n">
-        <v>786.3700866777928</v>
+        <v>471.174572770983</v>
       </c>
       <c r="M15" t="n">
-        <v>795.5335700119025</v>
+        <v>480.3380561050927</v>
       </c>
       <c r="N15" t="n">
-        <v>804.9395834830704</v>
+        <v>489.7440695762606</v>
       </c>
       <c r="O15" t="n">
-        <v>813.544248195299</v>
+        <v>498.3487342884893</v>
       </c>
       <c r="P15" t="n">
-        <v>1640.173416706702</v>
+        <v>1099.434478074627</v>
       </c>
       <c r="Q15" t="n">
         <v>1644.789896176253</v>
@@ -5399,10 +5399,10 @@
         <v>1010.633754769329</v>
       </c>
       <c r="X15" t="n">
-        <v>855.7663190082089</v>
+        <v>855.7663190082091</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.2805397874297</v>
+        <v>729.2805397874298</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1180.020033907811</v>
+        <v>952.6632683170508</v>
       </c>
       <c r="C16" t="n">
-        <v>1007.458322391036</v>
+        <v>780.1015568002757</v>
       </c>
       <c r="D16" t="n">
-        <v>841.5803295925584</v>
+        <v>614.2235640017984</v>
       </c>
       <c r="E16" t="n">
-        <v>671.8223258432956</v>
+        <v>444.4655602525356</v>
       </c>
       <c r="F16" t="n">
-        <v>495.1152718050519</v>
+        <v>267.7585062142919</v>
       </c>
       <c r="G16" t="n">
-        <v>329.5549322890832</v>
+        <v>102.1981666983232</v>
       </c>
       <c r="H16" t="n">
-        <v>189.9278023260321</v>
+        <v>102.1981666983232</v>
       </c>
       <c r="I16" t="n">
         <v>102.1981666983232</v>
       </c>
       <c r="J16" t="n">
-        <v>190.9214647338017</v>
+        <v>190.9214647338018</v>
       </c>
       <c r="K16" t="n">
         <v>469.2025337434972</v>
       </c>
       <c r="L16" t="n">
-        <v>891.9201491991114</v>
+        <v>891.9201491991115</v>
       </c>
       <c r="M16" t="n">
         <v>1356.156789522754</v>
@@ -5460,28 +5460,28 @@
         <v>2748.915766000571</v>
       </c>
       <c r="R16" t="n">
-        <v>2728.888915399355</v>
+        <v>2748.915766000571</v>
       </c>
       <c r="S16" t="n">
-        <v>2570.18666736441</v>
+        <v>2700.453805935644</v>
       </c>
       <c r="T16" t="n">
-        <v>2324.439399718826</v>
+        <v>2454.706538290061</v>
       </c>
       <c r="U16" t="n">
-        <v>2116.676482392986</v>
+        <v>2176.275224931795</v>
       </c>
       <c r="V16" t="n">
-        <v>2116.676482392986</v>
+        <v>1889.319716802226</v>
       </c>
       <c r="W16" t="n">
-        <v>1844.650077979277</v>
+        <v>1617.293312388517</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.25832331269</v>
+        <v>1371.90155772193</v>
       </c>
       <c r="Y16" t="n">
-        <v>1371.838652626798</v>
+        <v>1144.481887036038</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2527.645328556946</v>
       </c>
       <c r="C17" t="n">
-        <v>2089.502855740368</v>
+        <v>2089.50285574037</v>
       </c>
       <c r="D17" t="n">
-        <v>1653.593070914812</v>
+        <v>1653.593070914814</v>
       </c>
       <c r="E17" t="n">
-        <v>1219.818326073108</v>
+        <v>1219.818326073109</v>
       </c>
       <c r="F17" t="n">
-        <v>791.9508964823153</v>
+        <v>791.9508964823171</v>
       </c>
       <c r="G17" t="n">
-        <v>390.6220304029908</v>
+        <v>390.6220304029926</v>
       </c>
       <c r="H17" t="n">
         <v>102.1981666983232</v>
@@ -5515,52 +5515,52 @@
         <v>104.3955462483357</v>
       </c>
       <c r="J17" t="n">
-        <v>110.132408125637</v>
+        <v>545.3870955785549</v>
       </c>
       <c r="K17" t="n">
-        <v>953.0807689098626</v>
+        <v>1388.33545636278</v>
       </c>
       <c r="L17" t="n">
-        <v>2038.807399834687</v>
+        <v>2474.062087287605</v>
       </c>
       <c r="M17" t="n">
-        <v>3207.72395473905</v>
+        <v>2710.205453342031</v>
       </c>
       <c r="N17" t="n">
-        <v>4345.515706162319</v>
+        <v>2722.266221328853</v>
       </c>
       <c r="O17" t="n">
-        <v>5088.64318989799</v>
+        <v>3713.834529106001</v>
       </c>
       <c r="P17" t="n">
-        <v>5098.363131682502</v>
+        <v>4551.86434572391</v>
       </c>
       <c r="Q17" t="n">
-        <v>5105.662403165764</v>
+        <v>5105.662403165765</v>
       </c>
       <c r="R17" t="n">
-        <v>5109.908334916158</v>
+        <v>5109.908334916159</v>
       </c>
       <c r="S17" t="n">
-        <v>5027.828007814761</v>
+        <v>5027.828007814762</v>
       </c>
       <c r="T17" t="n">
-        <v>4808.062676277219</v>
+        <v>4808.06267627722</v>
       </c>
       <c r="U17" t="n">
-        <v>4548.845890818029</v>
+        <v>4548.84589081803</v>
       </c>
       <c r="V17" t="n">
         <v>4186.228940751856</v>
       </c>
       <c r="W17" t="n">
-        <v>3781.373486162889</v>
+        <v>3781.37348616289</v>
       </c>
       <c r="X17" t="n">
-        <v>3362.2310227422</v>
+        <v>3362.231022742201</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.944899041853</v>
+        <v>2953.944899041854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>607.9766387076666</v>
+        <v>607.9766387076667</v>
       </c>
       <c r="C18" t="n">
         <v>501.5201775443089</v>
       </c>
       <c r="D18" t="n">
-        <v>406.4298886908621</v>
+        <v>406.4298886908622</v>
       </c>
       <c r="E18" t="n">
-        <v>312.3094740178158</v>
+        <v>312.3094740178159</v>
       </c>
       <c r="F18" t="n">
         <v>228.9256356339775</v>
@@ -5597,10 +5597,10 @@
         <v>457.4821682640241</v>
       </c>
       <c r="K18" t="n">
-        <v>463.3220845858506</v>
+        <v>1057.501826339783</v>
       </c>
       <c r="L18" t="n">
-        <v>471.174572770983</v>
+        <v>1065.354314524916</v>
       </c>
       <c r="M18" t="n">
         <v>1074.517797859025</v>
@@ -5636,10 +5636,10 @@
         <v>1010.633754769329</v>
       </c>
       <c r="X18" t="n">
-        <v>855.7663190082089</v>
+        <v>855.7663190082091</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.2805397874297</v>
+        <v>729.2805397874298</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1007.458322391036</v>
+        <v>1180.020033907811</v>
       </c>
       <c r="C19" t="n">
         <v>1007.458322391036</v>
@@ -5667,19 +5667,19 @@
         <v>329.5549322890832</v>
       </c>
       <c r="H19" t="n">
-        <v>189.9278023260321</v>
+        <v>189.9278023260322</v>
       </c>
       <c r="I19" t="n">
         <v>102.1981666983232</v>
       </c>
       <c r="J19" t="n">
-        <v>190.9214647338017</v>
+        <v>190.9214647338018</v>
       </c>
       <c r="K19" t="n">
         <v>469.2025337434972</v>
       </c>
       <c r="L19" t="n">
-        <v>891.9201491991114</v>
+        <v>891.9201491991115</v>
       </c>
       <c r="M19" t="n">
         <v>1356.156789522754</v>
@@ -5700,25 +5700,25 @@
         <v>2748.915766000571</v>
       </c>
       <c r="S19" t="n">
-        <v>2590.213517965626</v>
+        <v>2748.915766000571</v>
       </c>
       <c r="T19" t="n">
-        <v>2344.466250320042</v>
+        <v>2682.063303880821</v>
       </c>
       <c r="U19" t="n">
-        <v>2066.034936961777</v>
+        <v>2403.631990522555</v>
       </c>
       <c r="V19" t="n">
-        <v>1779.079428832207</v>
+        <v>2116.676482392986</v>
       </c>
       <c r="W19" t="n">
-        <v>1507.053024418499</v>
+        <v>1844.650077979277</v>
       </c>
       <c r="X19" t="n">
-        <v>1261.661269751912</v>
+        <v>1599.25832331269</v>
       </c>
       <c r="Y19" t="n">
-        <v>1199.276941110023</v>
+        <v>1371.838652626798</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>2089.502855740368</v>
       </c>
       <c r="D20" t="n">
-        <v>1653.593070914813</v>
+        <v>1653.593070914812</v>
       </c>
       <c r="E20" t="n">
         <v>1219.818326073108</v>
       </c>
       <c r="F20" t="n">
-        <v>791.9508964823154</v>
+        <v>791.9508964823153</v>
       </c>
       <c r="G20" t="n">
         <v>390.6220304029908</v>
@@ -5752,46 +5752,46 @@
         <v>104.3955462483357</v>
       </c>
       <c r="J20" t="n">
-        <v>110.132408125637</v>
+        <v>545.3870955785549</v>
       </c>
       <c r="K20" t="n">
-        <v>953.0807689098626</v>
+        <v>1388.33545636278</v>
       </c>
       <c r="L20" t="n">
-        <v>2038.807399834687</v>
+        <v>2474.062087287605</v>
       </c>
       <c r="M20" t="n">
-        <v>3207.72395473905</v>
+        <v>2485.930806981417</v>
       </c>
       <c r="N20" t="n">
-        <v>4345.515706162319</v>
+        <v>2553.112156575797</v>
       </c>
       <c r="O20" t="n">
-        <v>5088.643189897991</v>
+        <v>3544.680464352944</v>
       </c>
       <c r="P20" t="n">
-        <v>5098.363131682503</v>
+        <v>4382.710280970853</v>
       </c>
       <c r="Q20" t="n">
-        <v>5105.662403165765</v>
+        <v>4936.508338412708</v>
       </c>
       <c r="R20" t="n">
         <v>5109.908334916159</v>
       </c>
       <c r="S20" t="n">
-        <v>5027.828007814762</v>
+        <v>5027.82800781476</v>
       </c>
       <c r="T20" t="n">
-        <v>4808.06267627722</v>
+        <v>4808.062676277218</v>
       </c>
       <c r="U20" t="n">
-        <v>4548.845890818029</v>
+        <v>4548.845890818028</v>
       </c>
       <c r="V20" t="n">
-        <v>4186.228940751856</v>
+        <v>4186.228940751855</v>
       </c>
       <c r="W20" t="n">
-        <v>3781.373486162889</v>
+        <v>3781.373486162888</v>
       </c>
       <c r="X20" t="n">
         <v>3362.231022742199</v>
@@ -5828,31 +5828,31 @@
         <v>102.1981666983232</v>
       </c>
       <c r="I21" t="n">
-        <v>103.4433345046718</v>
+        <v>129.5070076651294</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8601701373541</v>
+        <v>457.4821682640241</v>
       </c>
       <c r="K21" t="n">
-        <v>112.7000864591806</v>
+        <v>1057.501826339783</v>
       </c>
       <c r="L21" t="n">
-        <v>120.5525746443131</v>
+        <v>1065.354314524916</v>
       </c>
       <c r="M21" t="n">
-        <v>129.7160579784228</v>
+        <v>1074.517797859025</v>
       </c>
       <c r="N21" t="n">
-        <v>139.1220714495907</v>
+        <v>1083.923811330193</v>
       </c>
       <c r="O21" t="n">
-        <v>930.7170262896387</v>
+        <v>1092.528476042422</v>
       </c>
       <c r="P21" t="n">
-        <v>1757.346194801042</v>
+        <v>1099.434478074627</v>
       </c>
       <c r="Q21" t="n">
-        <v>1761.962674270592</v>
+        <v>1644.789896176253</v>
       </c>
       <c r="R21" t="n">
         <v>1764.20810044469</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.6632683170508</v>
+        <v>822.3961297458163</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1015568002757</v>
+        <v>649.8344182290413</v>
       </c>
       <c r="D22" t="n">
-        <v>614.2235640017984</v>
+        <v>483.956425430564</v>
       </c>
       <c r="E22" t="n">
-        <v>444.4655602525356</v>
+        <v>314.1984216813012</v>
       </c>
       <c r="F22" t="n">
         <v>267.7585062142919</v>
@@ -5934,28 +5934,28 @@
         <v>2748.915766000571</v>
       </c>
       <c r="R22" t="n">
-        <v>2748.915766000571</v>
+        <v>2728.888915399355</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.453805935644</v>
+        <v>2570.18666736441</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.706538290061</v>
+        <v>2324.439399718826</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.275224931795</v>
+        <v>2046.008086360561</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.319716802226</v>
+        <v>1759.052578230991</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.293312388517</v>
+        <v>1487.026173817283</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.90155772193</v>
+        <v>1241.634419150695</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.481887036038</v>
+        <v>1014.214748464804</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>2089.502855740368</v>
       </c>
       <c r="D23" t="n">
-        <v>1653.593070914812</v>
+        <v>1653.593070914813</v>
       </c>
       <c r="E23" t="n">
         <v>1219.818326073108</v>
       </c>
       <c r="F23" t="n">
-        <v>791.9508964823153</v>
+        <v>791.9508964823154</v>
       </c>
       <c r="G23" t="n">
         <v>390.6220304029908</v>
@@ -5989,28 +5989,28 @@
         <v>104.3955462483357</v>
       </c>
       <c r="J23" t="n">
-        <v>110.132408125637</v>
+        <v>545.3870955785549</v>
       </c>
       <c r="K23" t="n">
-        <v>953.0807689098626</v>
+        <v>1388.33545636278</v>
       </c>
       <c r="L23" t="n">
-        <v>2038.807399834687</v>
+        <v>2474.062087287605</v>
       </c>
       <c r="M23" t="n">
-        <v>3207.72395473905</v>
+        <v>2485.930806981417</v>
       </c>
       <c r="N23" t="n">
-        <v>4345.515706162319</v>
+        <v>2553.112156575797</v>
       </c>
       <c r="O23" t="n">
-        <v>5088.643189897991</v>
+        <v>3544.680464352944</v>
       </c>
       <c r="P23" t="n">
-        <v>5098.363131682503</v>
+        <v>4382.710280970853</v>
       </c>
       <c r="Q23" t="n">
-        <v>5105.662403165765</v>
+        <v>4936.508338412708</v>
       </c>
       <c r="R23" t="n">
         <v>5109.908334916159</v>
@@ -6019,16 +6019,16 @@
         <v>5027.828007814762</v>
       </c>
       <c r="T23" t="n">
-        <v>4808.062676277218</v>
+        <v>4808.06267627722</v>
       </c>
       <c r="U23" t="n">
-        <v>4548.845890818028</v>
+        <v>4548.845890818029</v>
       </c>
       <c r="V23" t="n">
-        <v>4186.228940751855</v>
+        <v>4186.228940751856</v>
       </c>
       <c r="W23" t="n">
-        <v>3781.373486162888</v>
+        <v>3781.373486162889</v>
       </c>
       <c r="X23" t="n">
         <v>3362.231022742199</v>
@@ -6071,13 +6071,13 @@
         <v>457.4821682640241</v>
       </c>
       <c r="K24" t="n">
-        <v>463.3220845858506</v>
+        <v>1057.501826339783</v>
       </c>
       <c r="L24" t="n">
-        <v>471.174572770983</v>
+        <v>1065.354314524916</v>
       </c>
       <c r="M24" t="n">
-        <v>480.3380561050927</v>
+        <v>1074.517797859025</v>
       </c>
       <c r="N24" t="n">
         <v>1083.923811330193</v>
@@ -6126,16 +6126,16 @@
         <v>842.4229803470325</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1015568002757</v>
+        <v>669.8612688302575</v>
       </c>
       <c r="D25" t="n">
-        <v>614.2235640017984</v>
+        <v>503.9832760317802</v>
       </c>
       <c r="E25" t="n">
-        <v>444.4655602525356</v>
+        <v>334.2252722825174</v>
       </c>
       <c r="F25" t="n">
-        <v>267.7585062142919</v>
+        <v>157.5182182442736</v>
       </c>
       <c r="G25" t="n">
         <v>102.1981666983232</v>
@@ -6226,28 +6226,28 @@
         <v>104.3955462483357</v>
       </c>
       <c r="J26" t="n">
-        <v>110.132408125637</v>
+        <v>545.3870955785549</v>
       </c>
       <c r="K26" t="n">
-        <v>951.3900362878474</v>
+        <v>1388.33545636278</v>
       </c>
       <c r="L26" t="n">
-        <v>962.0567009598128</v>
+        <v>2474.062087287605</v>
       </c>
       <c r="M26" t="n">
-        <v>2130.973255864176</v>
+        <v>2541.051388588972</v>
       </c>
       <c r="N26" t="n">
-        <v>3268.765007287445</v>
+        <v>2553.112156575795</v>
       </c>
       <c r="O26" t="n">
-        <v>4260.333315064593</v>
+        <v>3544.680464352943</v>
       </c>
       <c r="P26" t="n">
-        <v>5098.363131682501</v>
+        <v>4382.710280970851</v>
       </c>
       <c r="Q26" t="n">
-        <v>5105.662403165763</v>
+        <v>4936.508338412707</v>
       </c>
       <c r="R26" t="n">
         <v>5109.908334916157</v>
@@ -6308,19 +6308,19 @@
         <v>457.482168264024</v>
       </c>
       <c r="K27" t="n">
-        <v>463.3220845858505</v>
+        <v>1057.501826339783</v>
       </c>
       <c r="L27" t="n">
-        <v>471.174572770983</v>
+        <v>1065.354314524916</v>
       </c>
       <c r="M27" t="n">
-        <v>480.3380561050927</v>
+        <v>1074.517797859025</v>
       </c>
       <c r="N27" t="n">
-        <v>489.7440695762606</v>
+        <v>1083.923811330193</v>
       </c>
       <c r="O27" t="n">
-        <v>498.3487342884893</v>
+        <v>1092.528476042422</v>
       </c>
       <c r="P27" t="n">
         <v>1099.434478074627</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>842.4229803470325</v>
+        <v>952.6632683170508</v>
       </c>
       <c r="C28" t="n">
-        <v>669.8612688302575</v>
+        <v>780.1015568002757</v>
       </c>
       <c r="D28" t="n">
-        <v>503.9832760317802</v>
+        <v>614.2235640017984</v>
       </c>
       <c r="E28" t="n">
-        <v>503.9832760317802</v>
+        <v>444.4655602525356</v>
       </c>
       <c r="F28" t="n">
-        <v>495.1152718050519</v>
+        <v>267.7585062142918</v>
       </c>
       <c r="G28" t="n">
-        <v>329.5549322890832</v>
+        <v>102.1981666983231</v>
       </c>
       <c r="H28" t="n">
-        <v>189.9278023260321</v>
+        <v>102.1981666983231</v>
       </c>
       <c r="I28" t="n">
         <v>102.1981666983231</v>
@@ -6411,25 +6411,25 @@
         <v>2748.915766000571</v>
       </c>
       <c r="S28" t="n">
-        <v>2590.213517965626</v>
+        <v>2700.453805935644</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.466250320042</v>
+        <v>2454.706538290061</v>
       </c>
       <c r="U28" t="n">
-        <v>2066.034936961777</v>
+        <v>2176.275224931795</v>
       </c>
       <c r="V28" t="n">
-        <v>1779.079428832207</v>
+        <v>1889.319716802226</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.053024418499</v>
+        <v>1617.293312388517</v>
       </c>
       <c r="X28" t="n">
-        <v>1261.661269751912</v>
+        <v>1371.90155772193</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.24159906602</v>
+        <v>1144.481887036038</v>
       </c>
     </row>
     <row r="29">
@@ -6469,19 +6469,19 @@
         <v>553.9851644046025</v>
       </c>
       <c r="L29" t="n">
-        <v>1621.212511040153</v>
+        <v>1639.711795329427</v>
       </c>
       <c r="M29" t="n">
-        <v>2790.129065944516</v>
+        <v>2808.62835023379</v>
       </c>
       <c r="N29" t="n">
-        <v>3927.920817367785</v>
+        <v>3946.420101657059</v>
       </c>
       <c r="O29" t="n">
-        <v>4919.489125144933</v>
+        <v>3957.808742863901</v>
       </c>
       <c r="P29" t="n">
-        <v>4929.209066929446</v>
+        <v>4382.710280970852</v>
       </c>
       <c r="Q29" t="n">
         <v>4936.508338412707</v>
@@ -6539,31 +6539,31 @@
         <v>102.1981666983232</v>
       </c>
       <c r="I30" t="n">
-        <v>103.4433345046718</v>
+        <v>129.5070076651294</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8601701373541</v>
+        <v>457.4821682640241</v>
       </c>
       <c r="K30" t="n">
-        <v>112.7000864591806</v>
+        <v>1057.501826339783</v>
       </c>
       <c r="L30" t="n">
-        <v>120.5525746443131</v>
+        <v>1065.354314524916</v>
       </c>
       <c r="M30" t="n">
-        <v>718.6279047671388</v>
+        <v>1074.517797859025</v>
       </c>
       <c r="N30" t="n">
-        <v>728.0339182383067</v>
+        <v>1083.923811330193</v>
       </c>
       <c r="O30" t="n">
-        <v>1750.440192768837</v>
+        <v>1092.528476042422</v>
       </c>
       <c r="P30" t="n">
-        <v>1757.346194801042</v>
+        <v>1099.434478074627</v>
       </c>
       <c r="Q30" t="n">
-        <v>1761.962674270592</v>
+        <v>1644.789896176253</v>
       </c>
       <c r="R30" t="n">
         <v>1764.20810044469</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.6632683170508</v>
+        <v>842.4229803470325</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1015568002757</v>
+        <v>669.8612688302575</v>
       </c>
       <c r="D31" t="n">
-        <v>614.2235640017984</v>
+        <v>503.9832760317802</v>
       </c>
       <c r="E31" t="n">
         <v>444.4655602525356</v>
@@ -6648,25 +6648,25 @@
         <v>2748.915766000571</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.453805935644</v>
+        <v>2590.213517965626</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.706538290061</v>
+        <v>2344.466250320042</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.275224931795</v>
+        <v>2066.034936961777</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.319716802226</v>
+        <v>1779.079428832207</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.293312388517</v>
+        <v>1507.053024418499</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.90155772193</v>
+        <v>1261.661269751912</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.481887036038</v>
+        <v>1034.24159906602</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2527.645328556945</v>
+        <v>2527.645328556946</v>
       </c>
       <c r="C32" t="n">
-        <v>2089.502855740368</v>
+        <v>2089.502855740369</v>
       </c>
       <c r="D32" t="n">
-        <v>1653.593070914812</v>
+        <v>1653.593070914813</v>
       </c>
       <c r="E32" t="n">
-        <v>1219.818326073108</v>
+        <v>1219.818326073109</v>
       </c>
       <c r="F32" t="n">
-        <v>791.9508964823153</v>
+        <v>791.9508964823167</v>
       </c>
       <c r="G32" t="n">
-        <v>390.6220304029903</v>
+        <v>390.6220304029912</v>
       </c>
       <c r="H32" t="n">
         <v>102.1981666983232</v>
@@ -6727,25 +6727,25 @@
         <v>5109.908334916158</v>
       </c>
       <c r="S32" t="n">
-        <v>5027.828007814761</v>
+        <v>5027.828007814762</v>
       </c>
       <c r="T32" t="n">
-        <v>4808.062676277219</v>
+        <v>4808.06267627722</v>
       </c>
       <c r="U32" t="n">
-        <v>4548.845890818028</v>
+        <v>4548.845890818029</v>
       </c>
       <c r="V32" t="n">
-        <v>4186.228940751855</v>
+        <v>4186.228940751856</v>
       </c>
       <c r="W32" t="n">
-        <v>3781.373486162888</v>
+        <v>3781.373486162889</v>
       </c>
       <c r="X32" t="n">
-        <v>3362.231022742199</v>
+        <v>3362.2310227422</v>
       </c>
       <c r="Y32" t="n">
-        <v>2953.944899041852</v>
+        <v>2953.944899041853</v>
       </c>
     </row>
     <row r="33">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2527.645328556945</v>
+        <v>2527.645328556946</v>
       </c>
       <c r="C35" t="n">
-        <v>2089.502855740368</v>
+        <v>2089.502855740369</v>
       </c>
       <c r="D35" t="n">
-        <v>1653.593070914812</v>
+        <v>1653.593070914813</v>
       </c>
       <c r="E35" t="n">
         <v>1219.818326073108</v>
       </c>
       <c r="F35" t="n">
-        <v>791.9508964823154</v>
+        <v>791.9508964823167</v>
       </c>
       <c r="G35" t="n">
-        <v>390.6220304029908</v>
+        <v>390.6220304029912</v>
       </c>
       <c r="H35" t="n">
         <v>102.1981666983232</v>
@@ -6937,31 +6937,31 @@
         <v>104.3955462483357</v>
       </c>
       <c r="J35" t="n">
-        <v>110.132408125637</v>
+        <v>545.3870955785549</v>
       </c>
       <c r="K35" t="n">
-        <v>953.0807689098626</v>
+        <v>1388.33545636278</v>
       </c>
       <c r="L35" t="n">
-        <v>2038.807399834687</v>
+        <v>2474.062087287605</v>
       </c>
       <c r="M35" t="n">
-        <v>3207.72395473905</v>
+        <v>2710.20545334203</v>
       </c>
       <c r="N35" t="n">
-        <v>4345.515706162319</v>
+        <v>2722.266221328852</v>
       </c>
       <c r="O35" t="n">
-        <v>5088.643189897991</v>
+        <v>3713.834529106</v>
       </c>
       <c r="P35" t="n">
-        <v>5098.363131682503</v>
+        <v>4551.864345723909</v>
       </c>
       <c r="Q35" t="n">
-        <v>5105.662403165765</v>
+        <v>5105.662403165764</v>
       </c>
       <c r="R35" t="n">
-        <v>5109.908334916159</v>
+        <v>5109.908334916158</v>
       </c>
       <c r="S35" t="n">
         <v>5027.828007814762</v>
@@ -6970,19 +6970,19 @@
         <v>4808.06267627722</v>
       </c>
       <c r="U35" t="n">
-        <v>4548.845890818028</v>
+        <v>4548.845890818029</v>
       </c>
       <c r="V35" t="n">
-        <v>4186.228940751855</v>
+        <v>4186.228940751856</v>
       </c>
       <c r="W35" t="n">
-        <v>3781.373486162888</v>
+        <v>3781.373486162889</v>
       </c>
       <c r="X35" t="n">
-        <v>3362.231022742199</v>
+        <v>3362.2310227422</v>
       </c>
       <c r="Y35" t="n">
-        <v>2953.944899041852</v>
+        <v>2953.944899041853</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3953.676873179136</v>
+        <v>607.9766387076666</v>
       </c>
       <c r="C36" t="n">
-        <v>3847.220412015778</v>
+        <v>501.5201775443089</v>
       </c>
       <c r="D36" t="n">
-        <v>3752.130123162332</v>
+        <v>406.4298886908621</v>
       </c>
       <c r="E36" t="n">
-        <v>3658.009708489285</v>
+        <v>312.3094740178158</v>
       </c>
       <c r="F36" t="n">
-        <v>3574.625870105447</v>
+        <v>228.9256356339775</v>
       </c>
       <c r="G36" t="n">
-        <v>3489.277680058826</v>
+        <v>143.5774455873566</v>
       </c>
       <c r="H36" t="n">
-        <v>3447.898401169793</v>
+        <v>102.1981666983232</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.207242136599</v>
+        <v>129.5070076651294</v>
       </c>
       <c r="J36" t="n">
-        <v>3803.182402735494</v>
+        <v>457.4821682640241</v>
       </c>
       <c r="K36" t="n">
-        <v>4403.20206081125</v>
+        <v>1144.055604656228</v>
       </c>
       <c r="L36" t="n">
-        <v>4411.054548996382</v>
+        <v>1151.90809284136</v>
       </c>
       <c r="M36" t="n">
-        <v>4420.218032330492</v>
+        <v>1161.07157617547</v>
       </c>
       <c r="N36" t="n">
-        <v>4429.62404580166</v>
+        <v>1170.477589646638</v>
       </c>
       <c r="O36" t="n">
-        <v>4438.228710513888</v>
+        <v>1179.082254358867</v>
       </c>
       <c r="P36" t="n">
-        <v>4445.134712546094</v>
+        <v>1185.988256391071</v>
       </c>
       <c r="Q36" t="n">
-        <v>4990.49013064772</v>
+        <v>1731.343674492698</v>
       </c>
       <c r="R36" t="n">
-        <v>5109.908334916159</v>
+        <v>1764.20810044469</v>
       </c>
       <c r="S36" t="n">
-        <v>5047.13829287012</v>
+        <v>1701.438058398652</v>
       </c>
       <c r="T36" t="n">
-        <v>4917.108380834637</v>
+        <v>1571.408146363168</v>
       </c>
       <c r="U36" t="n">
-        <v>4740.774261445605</v>
+        <v>1395.074026974136</v>
       </c>
       <c r="V36" t="n">
-        <v>4541.656743507604</v>
+        <v>1195.956509036135</v>
       </c>
       <c r="W36" t="n">
-        <v>4356.333989240798</v>
+        <v>1010.633754769329</v>
       </c>
       <c r="X36" t="n">
-        <v>4201.466553479679</v>
+        <v>855.7663190082089</v>
       </c>
       <c r="Y36" t="n">
-        <v>4074.9807742589</v>
+        <v>729.2805397874297</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1040.39290394476</v>
+        <v>842.4229803470325</v>
       </c>
       <c r="C37" t="n">
-        <v>867.8311924279845</v>
+        <v>669.8612688302575</v>
       </c>
       <c r="D37" t="n">
-        <v>701.9531996295073</v>
+        <v>503.9832760317802</v>
       </c>
       <c r="E37" t="n">
-        <v>532.1951958802446</v>
+        <v>334.2252722825174</v>
       </c>
       <c r="F37" t="n">
-        <v>355.4881418420008</v>
+        <v>157.5182182442736</v>
       </c>
       <c r="G37" t="n">
-        <v>189.9278023260322</v>
+        <v>102.1981666983232</v>
       </c>
       <c r="H37" t="n">
-        <v>189.9278023260322</v>
+        <v>102.1981666983232</v>
       </c>
       <c r="I37" t="n">
         <v>102.1981666983232</v>
       </c>
       <c r="J37" t="n">
-        <v>190.9214647338018</v>
+        <v>190.9214647338017</v>
       </c>
       <c r="K37" t="n">
         <v>469.2025337434972</v>
       </c>
       <c r="L37" t="n">
-        <v>891.9201491991115</v>
+        <v>891.9201491991114</v>
       </c>
       <c r="M37" t="n">
         <v>1356.156789522754</v>
@@ -7122,25 +7122,25 @@
         <v>2748.915766000571</v>
       </c>
       <c r="S37" t="n">
-        <v>2748.915766000571</v>
+        <v>2590.213517965626</v>
       </c>
       <c r="T37" t="n">
-        <v>2542.436173917769</v>
+        <v>2344.466250320042</v>
       </c>
       <c r="U37" t="n">
-        <v>2264.004860559504</v>
+        <v>2066.034936961777</v>
       </c>
       <c r="V37" t="n">
-        <v>1977.049352429935</v>
+        <v>1779.079428832207</v>
       </c>
       <c r="W37" t="n">
-        <v>1705.022948016226</v>
+        <v>1507.053024418499</v>
       </c>
       <c r="X37" t="n">
-        <v>1459.631193349639</v>
+        <v>1261.661269751912</v>
       </c>
       <c r="Y37" t="n">
-        <v>1232.211522663747</v>
+        <v>1034.24159906602</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1219.818326073108</v>
       </c>
       <c r="F38" t="n">
-        <v>791.9508964823153</v>
+        <v>791.9508964823154</v>
       </c>
       <c r="G38" t="n">
         <v>390.6220304029908</v>
@@ -7174,25 +7174,25 @@
         <v>104.3955462483357</v>
       </c>
       <c r="J38" t="n">
-        <v>110.132408125637</v>
+        <v>545.3870955785549</v>
       </c>
       <c r="K38" t="n">
-        <v>953.0807689098626</v>
+        <v>1388.33545636278</v>
       </c>
       <c r="L38" t="n">
-        <v>2038.807399834687</v>
+        <v>2474.062087287605</v>
       </c>
       <c r="M38" t="n">
-        <v>2050.676119528499</v>
+        <v>2485.930806981417</v>
       </c>
       <c r="N38" t="n">
-        <v>3188.467870951768</v>
+        <v>3268.765007287447</v>
       </c>
       <c r="O38" t="n">
-        <v>4180.036178728917</v>
+        <v>4260.333315064595</v>
       </c>
       <c r="P38" t="n">
-        <v>5018.065995346825</v>
+        <v>5098.363131682503</v>
       </c>
       <c r="Q38" t="n">
         <v>5105.662403165765</v>
@@ -7201,10 +7201,10 @@
         <v>5109.908334916159</v>
       </c>
       <c r="S38" t="n">
-        <v>5027.82800781476</v>
+        <v>5027.828007814762</v>
       </c>
       <c r="T38" t="n">
-        <v>4808.062676277218</v>
+        <v>4808.06267627722</v>
       </c>
       <c r="U38" t="n">
         <v>4548.845890818028</v>
@@ -7250,31 +7250,31 @@
         <v>102.1981666983232</v>
       </c>
       <c r="I39" t="n">
-        <v>103.4433345046718</v>
+        <v>129.5070076651294</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8601701373541</v>
+        <v>457.4821682640241</v>
       </c>
       <c r="K39" t="n">
-        <v>112.7000864591806</v>
+        <v>1144.055604656228</v>
       </c>
       <c r="L39" t="n">
-        <v>1065.354314524916</v>
+        <v>1151.90809284136</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.517797859025</v>
+        <v>1161.07157617547</v>
       </c>
       <c r="N39" t="n">
-        <v>1083.923811330193</v>
+        <v>1170.477589646638</v>
       </c>
       <c r="O39" t="n">
-        <v>1092.528476042422</v>
+        <v>1179.082254358867</v>
       </c>
       <c r="P39" t="n">
-        <v>1099.434478074627</v>
+        <v>1185.988256391071</v>
       </c>
       <c r="Q39" t="n">
-        <v>1644.789896176253</v>
+        <v>1731.343674492698</v>
       </c>
       <c r="R39" t="n">
         <v>1764.20810044469</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>842.4229803470325</v>
+        <v>822.3961297458163</v>
       </c>
       <c r="C40" t="n">
-        <v>669.8612688302575</v>
+        <v>649.8344182290413</v>
       </c>
       <c r="D40" t="n">
-        <v>503.9832760317802</v>
+        <v>483.956425430564</v>
       </c>
       <c r="E40" t="n">
-        <v>334.2252722825174</v>
+        <v>483.956425430564</v>
       </c>
       <c r="F40" t="n">
-        <v>157.5182182442736</v>
+        <v>483.956425430564</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1981666983232</v>
+        <v>318.3960859145953</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1981666983232</v>
+        <v>178.7689559515443</v>
       </c>
       <c r="I40" t="n">
         <v>102.1981666983232</v>
@@ -7356,28 +7356,28 @@
         <v>2748.915766000571</v>
       </c>
       <c r="R40" t="n">
-        <v>2748.915766000571</v>
+        <v>2728.888915399355</v>
       </c>
       <c r="S40" t="n">
-        <v>2590.213517965626</v>
+        <v>2570.18666736441</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.466250320042</v>
+        <v>2324.439399718826</v>
       </c>
       <c r="U40" t="n">
-        <v>2066.034936961777</v>
+        <v>2046.008086360561</v>
       </c>
       <c r="V40" t="n">
-        <v>1779.079428832207</v>
+        <v>1759.052578230991</v>
       </c>
       <c r="W40" t="n">
-        <v>1507.053024418499</v>
+        <v>1487.026173817283</v>
       </c>
       <c r="X40" t="n">
-        <v>1261.661269751912</v>
+        <v>1241.634419150695</v>
       </c>
       <c r="Y40" t="n">
-        <v>1034.24159906602</v>
+        <v>1014.214748464804</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.645328556946</v>
+        <v>2527.645328556945</v>
       </c>
       <c r="C41" t="n">
-        <v>2089.50285574037</v>
+        <v>2089.502855740368</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.593070914814</v>
+        <v>1653.593070914813</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.818326073109</v>
+        <v>1219.818326073108</v>
       </c>
       <c r="F41" t="n">
-        <v>791.9508964823171</v>
+        <v>791.9508964823154</v>
       </c>
       <c r="G41" t="n">
-        <v>390.6220304029926</v>
+        <v>390.6220304029908</v>
       </c>
       <c r="H41" t="n">
         <v>102.1981666983232</v>
@@ -7417,13 +7417,13 @@
         <v>1388.33545636278</v>
       </c>
       <c r="L41" t="n">
-        <v>1399.002121034746</v>
+        <v>2474.062087287605</v>
       </c>
       <c r="M41" t="n">
-        <v>2567.918675939109</v>
+        <v>2485.930806981417</v>
       </c>
       <c r="N41" t="n">
-        <v>3702.445887899159</v>
+        <v>2722.266221328853</v>
       </c>
       <c r="O41" t="n">
         <v>3713.834529106001</v>
@@ -7444,19 +7444,19 @@
         <v>4808.06267627722</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.84589081803</v>
+        <v>4548.845890818029</v>
       </c>
       <c r="V41" t="n">
         <v>4186.228940751856</v>
       </c>
       <c r="W41" t="n">
-        <v>3781.37348616289</v>
+        <v>3781.373486162889</v>
       </c>
       <c r="X41" t="n">
-        <v>3362.231022742201</v>
+        <v>3362.231022742199</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.944899041854</v>
+        <v>2953.944899041853</v>
       </c>
     </row>
     <row r="42">
@@ -7511,7 +7511,7 @@
         <v>1185.988256391071</v>
       </c>
       <c r="Q42" t="n">
-        <v>1644.789896176253</v>
+        <v>1731.343674492698</v>
       </c>
       <c r="R42" t="n">
         <v>1764.20810044469</v>
@@ -7593,28 +7593,28 @@
         <v>2748.915766000571</v>
       </c>
       <c r="R43" t="n">
-        <v>2728.888915399355</v>
+        <v>2748.915766000571</v>
       </c>
       <c r="S43" t="n">
-        <v>2570.18666736441</v>
+        <v>2748.915766000571</v>
       </c>
       <c r="T43" t="n">
-        <v>2324.439399718826</v>
+        <v>2682.063303880821</v>
       </c>
       <c r="U43" t="n">
-        <v>2046.008086360561</v>
+        <v>2403.631990522555</v>
       </c>
       <c r="V43" t="n">
-        <v>1759.052578230991</v>
+        <v>2116.676482392986</v>
       </c>
       <c r="W43" t="n">
-        <v>1487.026173817283</v>
+        <v>1844.650077979277</v>
       </c>
       <c r="X43" t="n">
-        <v>1241.634419150695</v>
+        <v>1599.25832331269</v>
       </c>
       <c r="Y43" t="n">
-        <v>1241.634419150695</v>
+        <v>1371.838652626798</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2527.645328556946</v>
+        <v>2527.645328556945</v>
       </c>
       <c r="C44" t="n">
-        <v>2089.50285574037</v>
+        <v>2089.502855740368</v>
       </c>
       <c r="D44" t="n">
-        <v>1653.593070914812</v>
+        <v>1653.593070914813</v>
       </c>
       <c r="E44" t="n">
         <v>1219.818326073108</v>
       </c>
       <c r="F44" t="n">
-        <v>791.9508964823153</v>
+        <v>791.9508964823158</v>
       </c>
       <c r="G44" t="n">
         <v>390.6220304029908</v>
@@ -7654,22 +7654,22 @@
         <v>553.9851644046025</v>
       </c>
       <c r="L44" t="n">
-        <v>564.651829076568</v>
+        <v>1639.711795329427</v>
       </c>
       <c r="M44" t="n">
-        <v>1733.568383980931</v>
+        <v>1651.58051502324</v>
       </c>
       <c r="N44" t="n">
-        <v>2871.3601354042</v>
+        <v>2789.372266446509</v>
       </c>
       <c r="O44" t="n">
-        <v>3862.928443181348</v>
+        <v>3780.940574223657</v>
       </c>
       <c r="P44" t="n">
-        <v>4700.958259799258</v>
+        <v>4618.970390841566</v>
       </c>
       <c r="Q44" t="n">
-        <v>5105.662403165765</v>
+        <v>4936.508338412708</v>
       </c>
       <c r="R44" t="n">
         <v>5109.908334916159</v>
@@ -7681,19 +7681,19 @@
         <v>4808.06267627722</v>
       </c>
       <c r="U44" t="n">
-        <v>4548.84589081803</v>
+        <v>4548.845890818029</v>
       </c>
       <c r="V44" t="n">
         <v>4186.228940751856</v>
       </c>
       <c r="W44" t="n">
-        <v>3781.37348616289</v>
+        <v>3781.373486162889</v>
       </c>
       <c r="X44" t="n">
-        <v>3362.231022742201</v>
+        <v>3362.2310227422</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.944899041854</v>
+        <v>2953.944899041853</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>457.4821682640241</v>
       </c>
       <c r="K45" t="n">
-        <v>463.3220845858506</v>
+        <v>1144.055604656228</v>
       </c>
       <c r="L45" t="n">
-        <v>1065.354314524916</v>
+        <v>1151.90809284136</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.517797859025</v>
+        <v>1161.07157617547</v>
       </c>
       <c r="N45" t="n">
-        <v>1083.923811330193</v>
+        <v>1170.477589646638</v>
       </c>
       <c r="O45" t="n">
-        <v>1092.528476042422</v>
+        <v>1179.082254358867</v>
       </c>
       <c r="P45" t="n">
-        <v>1099.434478074627</v>
+        <v>1185.988256391071</v>
       </c>
       <c r="Q45" t="n">
         <v>1644.789896176253</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.6632683170508</v>
+        <v>842.4229803470325</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1015568002757</v>
+        <v>669.8612688302575</v>
       </c>
       <c r="D46" t="n">
-        <v>614.2235640017984</v>
+        <v>503.9832760317802</v>
       </c>
       <c r="E46" t="n">
-        <v>444.4655602525356</v>
+        <v>334.2252722825174</v>
       </c>
       <c r="F46" t="n">
-        <v>267.7585062142919</v>
+        <v>157.5182182442736</v>
       </c>
       <c r="G46" t="n">
         <v>102.1981666983232</v>
@@ -7833,25 +7833,25 @@
         <v>2748.915766000571</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.453805935644</v>
+        <v>2590.213517965626</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.706538290061</v>
+        <v>2344.466250320042</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.275224931795</v>
+        <v>2066.034936961777</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.319716802226</v>
+        <v>1779.079428832207</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.293312388517</v>
+        <v>1507.053024418499</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.90155772193</v>
+        <v>1261.661269751912</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.481887036038</v>
+        <v>1034.24159906602</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8063,16 +8063,16 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>52.98895607821112</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>321.9475215913874</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P5" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8300,22 +8300,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>358.9284720888814</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>591.8277453704044</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>226.5400468289013</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>600.1815573272047</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>510.0342995364815</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>371.8673154901635</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>739.1301439685139</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>344.7062495628964</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>600.1815573272047</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,19 +9172,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>226.5400468289022</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>739.1301439685139</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>600.1815573272047</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>600.1815573272048</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>55.67735515914819</v>
       </c>
       <c r="O20" t="n">
-        <v>739.1301439685149</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>600.1815573272047</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>790.8992829573933</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>55.67735515914819</v>
       </c>
       <c r="O23" t="n">
-        <v>739.1301439685149</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>600.1815573272047</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>600.1815573272047</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>841.07026195572</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>55.67735515914637</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9895,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>600.1815573272047</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>600.1815573272047</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1067.23301208443</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10126,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>419.3753498206452</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>600.1815573272047</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>594.8604513017334</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>591.8277453704044</v>
+        <v>591.8277453704043</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,19 +10594,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>226.5400468289013</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>739.1301439685149</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>600.1815573272015</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>30.92828260393412</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>778.5590225446535</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10843,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.10821852088702</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>954.3451917985886</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>30.92828260393412</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1133.804488861846</v>
+        <v>226.5400468289022</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>458.7728892077077</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>30.92828260393412</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,10 +11302,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11317,10 +11317,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>401.4190625083293</v>
+        <v>313.3724000887687</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>600.1815573272048</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>458.7728892077077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>99.13490213717249</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.2308586634205</v>
       </c>
       <c r="I13" t="n">
         <v>86.85233927143186</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.82658209520383</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>109.1378850903181</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.2308586634205</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.85233927143186</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.82658209520383</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>109.1378850903176</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>69.96171207210054</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>19.82658209520383</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.1152255545954</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>177.1058574705746</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>163.384988623563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>128.9644671855221</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.82658209520383</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>109.1378850903176</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>109.1378850903181</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>109.137885090318</v>
       </c>
       <c r="H25" t="n">
         <v>138.2308586634205</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>166.1606593134003</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.2308586634205</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.85233927143186</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>19.82658209520383</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>109.1378850903176</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>109.137885090318</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>19.82658209520383</v>
       </c>
       <c r="S31" t="n">
-        <v>109.1378850903176</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>109.137885090318</v>
       </c>
       <c r="H37" t="n">
         <v>138.2308586634205</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.85233927143186</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>19.82658209520383</v>
       </c>
       <c r="S37" t="n">
-        <v>157.1152255545954</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>38.8749988071539</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>109.137885090318</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.2308586634205</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.85233927143186</v>
+        <v>11.04725791074299</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.82658209520383</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.9021911413416</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.82658209520383</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.1152255545954</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>177.1058574705746</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>109.137885090318</v>
       </c>
       <c r="H46" t="n">
         <v>138.2308586634205</v>
@@ -26073,7 +26073,7 @@
         <v>19.82658209520383</v>
       </c>
       <c r="S46" t="n">
-        <v>109.1378850903176</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904082</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904084</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904082</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
+        <v>527650.1759275196</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527650.1759275197</v>
+      </c>
+      <c r="G2" t="n">
         <v>527650.1759275194</v>
       </c>
-      <c r="F2" t="n">
-        <v>527650.1759275196</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527650.1759275196</v>
-      </c>
       <c r="H2" t="n">
-        <v>527650.1759275196</v>
+        <v>527650.1759275194</v>
       </c>
       <c r="I2" t="n">
         <v>527650.1759275194</v>
       </c>
       <c r="J2" t="n">
-        <v>527650.1759275193</v>
+        <v>527650.1759275196</v>
       </c>
       <c r="K2" t="n">
-        <v>527650.1759275196</v>
+        <v>527650.1759275194</v>
       </c>
       <c r="L2" t="n">
         <v>527650.1759275196</v>
@@ -26349,10 +26349,10 @@
         <v>527650.1759275196</v>
       </c>
       <c r="N2" t="n">
-        <v>527650.1759275194</v>
+        <v>527650.1759275196</v>
       </c>
       <c r="O2" t="n">
-        <v>527650.1759275194</v>
+        <v>527650.1759275196</v>
       </c>
       <c r="P2" t="n">
         <v>527650.1759275196</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61556.6282799684</v>
+        <v>61556.62827996838</v>
       </c>
       <c r="M3" t="n">
-        <v>152004.9396261073</v>
+        <v>152004.9396261072</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>106402.8434097436</v>
       </c>
       <c r="I4" t="n">
-        <v>106402.8434097436</v>
+        <v>106402.8434097437</v>
       </c>
       <c r="J4" t="n">
         <v>106402.8434097436</v>
@@ -26481,10 +26481,10 @@
         <v>78040.84844159872</v>
       </c>
       <c r="F5" t="n">
-        <v>78040.84844159872</v>
+        <v>78040.84844159873</v>
       </c>
       <c r="G5" t="n">
-        <v>78040.84844159872</v>
+        <v>78040.84844159873</v>
       </c>
       <c r="H5" t="n">
         <v>78040.84844159873</v>
@@ -26502,7 +26502,7 @@
         <v>78040.84844159872</v>
       </c>
       <c r="M5" t="n">
-        <v>78040.84844159873</v>
+        <v>78040.84844159872</v>
       </c>
       <c r="N5" t="n">
         <v>78040.84844159873</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116305.9650609068</v>
+        <v>116305.965060907</v>
       </c>
       <c r="C6" t="n">
         <v>258497.265720617</v>
       </c>
       <c r="D6" t="n">
-        <v>203867.5866481942</v>
+        <v>203867.5866481943</v>
       </c>
       <c r="E6" t="n">
-        <v>147440.6384090558</v>
+        <v>147419.3955491487</v>
       </c>
       <c r="F6" t="n">
-        <v>343206.4840761772</v>
+        <v>343185.2412162701</v>
       </c>
       <c r="G6" t="n">
-        <v>343206.4840761772</v>
+        <v>343185.2412162699</v>
       </c>
       <c r="H6" t="n">
-        <v>343206.4840761772</v>
+        <v>343185.2412162699</v>
       </c>
       <c r="I6" t="n">
-        <v>343206.4840761771</v>
+        <v>343185.2412162699</v>
       </c>
       <c r="J6" t="n">
-        <v>232192.0187311869</v>
+        <v>232170.7758712799</v>
       </c>
       <c r="K6" t="n">
-        <v>343206.4840761772</v>
+        <v>343185.2412162699</v>
       </c>
       <c r="L6" t="n">
-        <v>281649.8557962088</v>
+        <v>281628.6129363016</v>
       </c>
       <c r="M6" t="n">
-        <v>191201.54445007</v>
+        <v>191180.3015901628</v>
       </c>
       <c r="N6" t="n">
-        <v>343206.4840761772</v>
+        <v>343185.24121627</v>
       </c>
       <c r="O6" t="n">
-        <v>343206.4840761771</v>
+        <v>343185.24121627</v>
       </c>
       <c r="P6" t="n">
-        <v>343206.4840761773</v>
+        <v>343185.24121627</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="F3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="G3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="H3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="I3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="J3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="K3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="L3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="M3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="N3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="O3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="P3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>16.98356655381281</v>
+        <v>16.98356655381282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>243.2193490877526</v>
       </c>
       <c r="M4" t="n">
-        <v>609.9618771211829</v>
+        <v>609.9618771211826</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E2" t="n">
+        <v>353.6379595934744</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>397.350606037008</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>169.8584983691369</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>211.2931140127281</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>155.5340356063366</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,16 +27675,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>195.468846077638</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2073951851675</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27906,10 +27906,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.75150601404977</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>52.01701577190843</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.003730514843483e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I11" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J11" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K11" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L11" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M11" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N11" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O11" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P11" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R11" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S11" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U11" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I12" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J12" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K12" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L12" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M12" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N12" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O12" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P12" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R12" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S12" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J13" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K13" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L13" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M13" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N13" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O13" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P13" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R13" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T13" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I14" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J14" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K14" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L14" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M14" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N14" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O14" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P14" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R14" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S14" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U14" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I15" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J15" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K15" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L15" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M15" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N15" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O15" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P15" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R15" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S15" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U15" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J16" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K16" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L16" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M16" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N16" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O16" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P16" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R16" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T16" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I17" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J17" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K17" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L17" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M17" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N17" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O17" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P17" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R17" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S17" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U17" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I18" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J18" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K18" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L18" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M18" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N18" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O18" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P18" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R18" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S18" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U18" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J19" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K19" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L19" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M19" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N19" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O19" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P19" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R19" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T19" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U19" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I20" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J20" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K20" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L20" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M20" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N20" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O20" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P20" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R20" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S20" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U20" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I21" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J21" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K21" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L21" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M21" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N21" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O21" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P21" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R21" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S21" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U21" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J22" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K22" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L22" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M22" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N22" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O22" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P22" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R22" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T22" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I23" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J23" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K23" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L23" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M23" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N23" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O23" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P23" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R23" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S23" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U23" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I24" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J24" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K24" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L24" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M24" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N24" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O24" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P24" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R24" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S24" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U24" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J25" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K25" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L25" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M25" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N25" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O25" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P25" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R25" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T25" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U25" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I26" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J26" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K26" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L26" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M26" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N26" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O26" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P26" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R26" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S26" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U26" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I27" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J27" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K27" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L27" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M27" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N27" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O27" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P27" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R27" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S27" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U27" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J28" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K28" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L28" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M28" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N28" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O28" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P28" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R28" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T28" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U28" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I29" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J29" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K29" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L29" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M29" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N29" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O29" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P29" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R29" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S29" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U29" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I30" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J30" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K30" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L30" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M30" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N30" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O30" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P30" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R30" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S30" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U30" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J31" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K31" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L31" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M31" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N31" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O31" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P31" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R31" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T31" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U31" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I32" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J32" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K32" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L32" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M32" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N32" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O32" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P32" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R32" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S32" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U32" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I33" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J33" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K33" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L33" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M33" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N33" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O33" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P33" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R33" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S33" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U33" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J34" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K34" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L34" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M34" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N34" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O34" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P34" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R34" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T34" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U34" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I35" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J35" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K35" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L35" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M35" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N35" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O35" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P35" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R35" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S35" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T35" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U35" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I36" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J36" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K36" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L36" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M36" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N36" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O36" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P36" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R36" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S36" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U36" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J37" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K37" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L37" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M37" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N37" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O37" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P37" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R37" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T37" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U37" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I38" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J38" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K38" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L38" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M38" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N38" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O38" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P38" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q38" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R38" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S38" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T38" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U38" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I39" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J39" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K39" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L39" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M39" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N39" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O39" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P39" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R39" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S39" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U39" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J40" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K40" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L40" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M40" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N40" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O40" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P40" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R40" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T40" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U40" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I41" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J41" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K41" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L41" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M41" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N41" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O41" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P41" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R41" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S41" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T41" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U41" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I42" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J42" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K42" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L42" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M42" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N42" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O42" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P42" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R42" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S42" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U42" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J43" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K43" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L43" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M43" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N43" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O43" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P43" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R43" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S43" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T43" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U43" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06827564443743837</v>
+        <v>0.06827564443743842</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6992279435949159</v>
+        <v>0.6992279435949164</v>
       </c>
       <c r="I44" t="n">
-        <v>2.632196782174345</v>
+        <v>2.632196782174347</v>
       </c>
       <c r="J44" t="n">
-        <v>5.79480997707204</v>
+        <v>5.794809977072044</v>
       </c>
       <c r="K44" t="n">
-        <v>8.684918006108807</v>
+        <v>8.684918006108813</v>
       </c>
       <c r="L44" t="n">
-        <v>10.77440875956106</v>
+        <v>10.77440875956107</v>
       </c>
       <c r="M44" t="n">
-        <v>11.98860575132536</v>
+        <v>11.98860575132537</v>
       </c>
       <c r="N44" t="n">
-        <v>12.18259392608323</v>
+        <v>12.18259392608324</v>
       </c>
       <c r="O44" t="n">
-        <v>11.50367798670845</v>
+        <v>11.50367798670846</v>
       </c>
       <c r="P44" t="n">
-        <v>9.818123014659191</v>
+        <v>9.818123014659198</v>
       </c>
       <c r="Q44" t="n">
-        <v>7.373001498243427</v>
+        <v>7.373001498243433</v>
       </c>
       <c r="R44" t="n">
-        <v>4.288819949893242</v>
+        <v>4.288819949893244</v>
       </c>
       <c r="S44" t="n">
-        <v>1.555831247618128</v>
+        <v>1.555831247618129</v>
       </c>
       <c r="T44" t="n">
-        <v>0.2988766335248866</v>
+        <v>0.2988766335248868</v>
       </c>
       <c r="U44" t="n">
-        <v>0.005462051554995068</v>
+        <v>0.005462051554995071</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03653069032329547</v>
+        <v>0.0365306903232955</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3528095618065642</v>
+        <v>0.3528095618065644</v>
       </c>
       <c r="I45" t="n">
-        <v>1.257745258938024</v>
+        <v>1.257745258938025</v>
       </c>
       <c r="J45" t="n">
-        <v>3.451349123921526</v>
+        <v>3.451349123921528</v>
       </c>
       <c r="K45" t="n">
-        <v>5.898905375582323</v>
+        <v>5.898905375582326</v>
       </c>
       <c r="L45" t="n">
-        <v>7.93180624760852</v>
+        <v>7.931806247608525</v>
       </c>
       <c r="M45" t="n">
-        <v>9.256043771827979</v>
+        <v>9.256043771827985</v>
       </c>
       <c r="N45" t="n">
-        <v>9.501023708250431</v>
+        <v>9.501023708250438</v>
       </c>
       <c r="O45" t="n">
-        <v>8.691580517402674</v>
+        <v>8.691580517402679</v>
       </c>
       <c r="P45" t="n">
-        <v>6.975759628489643</v>
+        <v>6.975759628489646</v>
       </c>
       <c r="Q45" t="n">
-        <v>4.663110575303471</v>
+        <v>4.663110575303475</v>
       </c>
       <c r="R45" t="n">
-        <v>2.268107246563908</v>
+        <v>2.268107246563909</v>
       </c>
       <c r="S45" t="n">
-        <v>0.678541550522615</v>
+        <v>0.6785415505226154</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1472443175750374</v>
+        <v>0.1472443175750375</v>
       </c>
       <c r="U45" t="n">
-        <v>0.002403334889690493</v>
+        <v>0.002403334889690494</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03062610362162965</v>
+        <v>0.03062610362162967</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2722939031086711</v>
+        <v>0.2722939031086712</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9210104616395537</v>
+        <v>0.9210104616395542</v>
       </c>
       <c r="J46" t="n">
-        <v>2.165265526049216</v>
+        <v>2.165265526049217</v>
       </c>
       <c r="K46" t="n">
-        <v>3.558196402585698</v>
+        <v>3.5581964025857</v>
       </c>
       <c r="L46" t="n">
-        <v>4.55326635116483</v>
+        <v>4.553266351164833</v>
       </c>
       <c r="M46" t="n">
-        <v>4.800780952252364</v>
+        <v>4.800780952252366</v>
       </c>
       <c r="N46" t="n">
-        <v>4.686629111480839</v>
+        <v>4.686629111480841</v>
       </c>
       <c r="O46" t="n">
-        <v>4.328860537355436</v>
+        <v>4.328860537355439</v>
       </c>
       <c r="P46" t="n">
-        <v>3.704088023474188</v>
+        <v>3.70408802347419</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.564518549625734</v>
+        <v>2.564518549625735</v>
       </c>
       <c r="R46" t="n">
-        <v>1.377060986478002</v>
+        <v>1.377060986478003</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5337294603878547</v>
+        <v>0.5337294603878551</v>
       </c>
       <c r="T46" t="n">
         <v>0.1308569882015085</v>
       </c>
       <c r="U46" t="n">
-        <v>0.001670514742997983</v>
+        <v>0.001670514742997984</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34783,16 +34783,16 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>52.98895607821112</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>321.9475215913874</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P5" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35020,22 +35020,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>358.9284720888814</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J11" t="n">
-        <v>5.794809977072035</v>
+        <v>445.4460094244639</v>
       </c>
       <c r="K11" t="n">
-        <v>600.5126633765132</v>
+        <v>851.4629906911371</v>
       </c>
       <c r="L11" t="n">
         <v>1096.693566590732</v>
       </c>
       <c r="M11" t="n">
-        <v>1180.72379283269</v>
+        <v>11.98860575132539</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.284597397242</v>
+        <v>238.7226407549847</v>
       </c>
       <c r="O11" t="n">
         <v>1001.584149269846</v>
       </c>
       <c r="P11" t="n">
-        <v>9.81812301465925</v>
+        <v>846.4947642605139</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.373001498243866</v>
+        <v>559.3919772139952</v>
       </c>
       <c r="R11" t="n">
         <v>4.288819949892968</v>
@@ -35488,19 +35488,19 @@
         <v>27.58468784525884</v>
       </c>
       <c r="J12" t="n">
-        <v>3.451349123921517</v>
+        <v>331.2880410089846</v>
       </c>
       <c r="K12" t="n">
-        <v>5.898905375582331</v>
+        <v>606.080462702787</v>
       </c>
       <c r="L12" t="n">
-        <v>972.1167040366023</v>
+        <v>7.93180624760862</v>
       </c>
       <c r="M12" t="n">
         <v>9.25604377182799</v>
       </c>
       <c r="N12" t="n">
-        <v>519.5353232447319</v>
+        <v>9.501023708250386</v>
       </c>
       <c r="O12" t="n">
         <v>8.691580517402599</v>
@@ -35509,7 +35509,7 @@
         <v>6.975759628489641</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.663110575303563</v>
+        <v>550.864058688511</v>
       </c>
       <c r="R12" t="n">
         <v>120.6244487559979</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J14" t="n">
-        <v>5.794809977072035</v>
+        <v>377.6621254672356</v>
       </c>
       <c r="K14" t="n">
-        <v>851.4629906911371</v>
+        <v>8.68491800610883</v>
       </c>
       <c r="L14" t="n">
         <v>1096.693566590732</v>
       </c>
       <c r="M14" t="n">
-        <v>1180.72379283269</v>
+        <v>11.98860575132539</v>
       </c>
       <c r="N14" t="n">
         <v>1149.284597397242</v>
       </c>
       <c r="O14" t="n">
-        <v>750.6338219552226</v>
+        <v>1001.584149269846</v>
       </c>
       <c r="P14" t="n">
-        <v>9.81812301465925</v>
+        <v>846.4947642605139</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.373001498243866</v>
+        <v>559.3919772139952</v>
       </c>
       <c r="R14" t="n">
         <v>4.288819949892968</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.25774525893803</v>
+        <v>27.58468784525884</v>
       </c>
       <c r="J15" t="n">
         <v>331.2880410089845</v>
       </c>
       <c r="K15" t="n">
-        <v>350.6051549384787</v>
+        <v>5.898905375582331</v>
       </c>
       <c r="L15" t="n">
         <v>7.931806247608506</v>
@@ -35737,16 +35737,16 @@
         <v>9.25604377182799</v>
       </c>
       <c r="N15" t="n">
-        <v>9.501023708250386</v>
+        <v>9.501023708250443</v>
       </c>
       <c r="O15" t="n">
-        <v>8.691580517402713</v>
+        <v>8.691580517402656</v>
       </c>
       <c r="P15" t="n">
-        <v>834.9789580923263</v>
+        <v>607.1573169556943</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.663110575303563</v>
+        <v>550.864058688511</v>
       </c>
       <c r="R15" t="n">
         <v>120.6244487559979</v>
@@ -35807,13 +35807,13 @@
         <v>89.61949296512988</v>
       </c>
       <c r="K16" t="n">
-        <v>281.0919888986822</v>
+        <v>281.0919888986823</v>
       </c>
       <c r="L16" t="n">
-        <v>426.9874903592063</v>
+        <v>426.9874903592064</v>
       </c>
       <c r="M16" t="n">
-        <v>468.9258993168111</v>
+        <v>468.925899316811</v>
       </c>
       <c r="N16" t="n">
         <v>451.4126929070815</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J17" t="n">
-        <v>5.794809977072035</v>
+        <v>445.4460094244639</v>
       </c>
       <c r="K17" t="n">
         <v>851.4629906911371</v>
@@ -35892,19 +35892,19 @@
         <v>1096.693566590732</v>
       </c>
       <c r="M17" t="n">
-        <v>1180.72379283269</v>
+        <v>238.5286525802276</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.284597397242</v>
+        <v>12.18259392608343</v>
       </c>
       <c r="O17" t="n">
-        <v>750.6338219552226</v>
+        <v>1001.584149269846</v>
       </c>
       <c r="P17" t="n">
-        <v>9.81812301465925</v>
+        <v>846.4947642605139</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.373001498243866</v>
+        <v>559.3919772139952</v>
       </c>
       <c r="R17" t="n">
         <v>4.288819949892968</v>
@@ -35962,16 +35962,16 @@
         <v>27.58468784525884</v>
       </c>
       <c r="J18" t="n">
-        <v>331.2880410089846</v>
+        <v>331.2880410089845</v>
       </c>
       <c r="K18" t="n">
-        <v>5.898905375582331</v>
+        <v>606.080462702787</v>
       </c>
       <c r="L18" t="n">
-        <v>7.931806247608506</v>
+        <v>7.93180624760862</v>
       </c>
       <c r="M18" t="n">
-        <v>609.4376010990328</v>
+        <v>9.25604377182799</v>
       </c>
       <c r="N18" t="n">
         <v>9.501023708250386</v>
@@ -36044,13 +36044,13 @@
         <v>89.61949296512988</v>
       </c>
       <c r="K19" t="n">
-        <v>281.0919888986822</v>
+        <v>281.0919888986823</v>
       </c>
       <c r="L19" t="n">
-        <v>426.9874903592063</v>
+        <v>426.9874903592064</v>
       </c>
       <c r="M19" t="n">
-        <v>468.9258993168111</v>
+        <v>468.925899316811</v>
       </c>
       <c r="N19" t="n">
         <v>451.4126929070815</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J20" t="n">
-        <v>5.794809977072035</v>
+        <v>445.4460094244639</v>
       </c>
       <c r="K20" t="n">
         <v>851.4629906911371</v>
@@ -36129,22 +36129,22 @@
         <v>1096.693566590732</v>
       </c>
       <c r="M20" t="n">
-        <v>1180.72379283269</v>
+        <v>11.98860575132539</v>
       </c>
       <c r="N20" t="n">
-        <v>1149.284597397242</v>
+        <v>67.85994908523162</v>
       </c>
       <c r="O20" t="n">
-        <v>750.6338219552235</v>
+        <v>1001.584149269846</v>
       </c>
       <c r="P20" t="n">
-        <v>9.81812301465925</v>
+        <v>846.4947642605139</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.373001498243866</v>
+        <v>559.3919772139952</v>
       </c>
       <c r="R20" t="n">
-        <v>4.288819949892968</v>
+        <v>175.151511619647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.25774525893803</v>
+        <v>27.58468784525884</v>
       </c>
       <c r="J21" t="n">
-        <v>3.451349123921531</v>
+        <v>331.2880410089845</v>
       </c>
       <c r="K21" t="n">
-        <v>5.898905375582316</v>
+        <v>606.080462702787</v>
       </c>
       <c r="L21" t="n">
-        <v>7.93180624760852</v>
+        <v>7.93180624760862</v>
       </c>
       <c r="M21" t="n">
         <v>9.25604377182799</v>
       </c>
       <c r="N21" t="n">
-        <v>9.501023708250443</v>
+        <v>9.501023708250386</v>
       </c>
       <c r="O21" t="n">
-        <v>799.590863474796</v>
+        <v>8.691580517402599</v>
       </c>
       <c r="P21" t="n">
-        <v>834.9789580923263</v>
+        <v>6.975759628489641</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.663110575303563</v>
+        <v>550.864058688511</v>
       </c>
       <c r="R21" t="n">
-        <v>2.268107246563886</v>
+        <v>120.6244487559979</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J23" t="n">
-        <v>5.794809977072035</v>
+        <v>445.4460094244639</v>
       </c>
       <c r="K23" t="n">
         <v>851.4629906911371</v>
@@ -36366,22 +36366,22 @@
         <v>1096.693566590732</v>
       </c>
       <c r="M23" t="n">
-        <v>1180.72379283269</v>
+        <v>11.98860575132539</v>
       </c>
       <c r="N23" t="n">
-        <v>1149.284597397242</v>
+        <v>67.85994908523162</v>
       </c>
       <c r="O23" t="n">
-        <v>750.6338219552235</v>
+        <v>1001.584149269846</v>
       </c>
       <c r="P23" t="n">
-        <v>9.81812301465925</v>
+        <v>846.4947642605139</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.373001498243866</v>
+        <v>559.3919772139952</v>
       </c>
       <c r="R23" t="n">
-        <v>4.288819949892968</v>
+        <v>175.151511619647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>331.2880410089845</v>
       </c>
       <c r="K24" t="n">
-        <v>5.898905375582331</v>
+        <v>606.080462702787</v>
       </c>
       <c r="L24" t="n">
-        <v>7.931806247608506</v>
+        <v>7.93180624760862</v>
       </c>
       <c r="M24" t="n">
         <v>9.25604377182799</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6825810354552</v>
+        <v>9.501023708250386</v>
       </c>
       <c r="O24" t="n">
         <v>8.691580517402599</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J26" t="n">
-        <v>5.794809977072035</v>
+        <v>445.4460094244639</v>
       </c>
       <c r="K26" t="n">
-        <v>849.7551799618287</v>
+        <v>851.4629906911371</v>
       </c>
       <c r="L26" t="n">
-        <v>10.77440875956108</v>
+        <v>1096.693566590732</v>
       </c>
       <c r="M26" t="n">
-        <v>1180.72379283269</v>
+        <v>67.66596091047177</v>
       </c>
       <c r="N26" t="n">
-        <v>1149.284597397242</v>
+        <v>12.18259392608343</v>
       </c>
       <c r="O26" t="n">
         <v>1001.584149269846</v>
@@ -36615,10 +36615,10 @@
         <v>846.4947642605139</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.373001498243866</v>
+        <v>559.3919772139952</v>
       </c>
       <c r="R26" t="n">
-        <v>4.288819949892968</v>
+        <v>175.151511619647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>331.2880410089845</v>
       </c>
       <c r="K27" t="n">
-        <v>5.898905375582331</v>
+        <v>606.0804627027871</v>
       </c>
       <c r="L27" t="n">
-        <v>7.931806247608506</v>
+        <v>7.93180624760862</v>
       </c>
       <c r="M27" t="n">
         <v>9.25604377182799</v>
       </c>
       <c r="N27" t="n">
-        <v>9.501023708250443</v>
+        <v>9.501023708250386</v>
       </c>
       <c r="O27" t="n">
-        <v>8.691580517402656</v>
+        <v>8.691580517402599</v>
       </c>
       <c r="P27" t="n">
-        <v>607.1573169556943</v>
+        <v>6.975759628489641</v>
       </c>
       <c r="Q27" t="n">
         <v>550.864058688511</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J29" t="n">
         <v>445.4460094244639</v>
@@ -36837,7 +36837,7 @@
         <v>8.684918006108774</v>
       </c>
       <c r="L29" t="n">
-        <v>1078.007420843991</v>
+        <v>1096.693566590732</v>
       </c>
       <c r="M29" t="n">
         <v>1180.72379283269</v>
@@ -36846,13 +36846,13 @@
         <v>1149.284597397242</v>
       </c>
       <c r="O29" t="n">
-        <v>1001.584149269846</v>
+        <v>11.50367798670868</v>
       </c>
       <c r="P29" t="n">
-        <v>9.81812301465925</v>
+        <v>429.1934728353044</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.373001498243866</v>
+        <v>559.3919772139952</v>
       </c>
       <c r="R29" t="n">
         <v>175.151511619647</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.25774525893803</v>
+        <v>27.58468784525884</v>
       </c>
       <c r="J30" t="n">
-        <v>3.451349123921531</v>
+        <v>331.2880410089846</v>
       </c>
       <c r="K30" t="n">
-        <v>5.898905375582316</v>
+        <v>606.080462702787</v>
       </c>
       <c r="L30" t="n">
-        <v>7.93180624760852</v>
+        <v>7.93180624760862</v>
       </c>
       <c r="M30" t="n">
-        <v>604.1164950735614</v>
+        <v>9.25604377182799</v>
       </c>
       <c r="N30" t="n">
         <v>9.501023708250386</v>
       </c>
       <c r="O30" t="n">
-        <v>1032.733610636899</v>
+        <v>8.691580517402599</v>
       </c>
       <c r="P30" t="n">
         <v>6.975759628489641</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.663110575303563</v>
+        <v>550.864058688511</v>
       </c>
       <c r="R30" t="n">
-        <v>2.268107246563886</v>
+        <v>120.6244487559979</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J32" t="n">
-        <v>5.794809977072035</v>
+        <v>5.794809977072049</v>
       </c>
       <c r="K32" t="n">
         <v>600.5126633765132</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J35" t="n">
-        <v>5.794809977072035</v>
+        <v>445.4460094244639</v>
       </c>
       <c r="K35" t="n">
         <v>851.4629906911371</v>
@@ -37314,19 +37314,19 @@
         <v>1096.693566590732</v>
       </c>
       <c r="M35" t="n">
-        <v>1180.72379283269</v>
+        <v>238.5286525802267</v>
       </c>
       <c r="N35" t="n">
-        <v>1149.284597397242</v>
+        <v>12.18259392608343</v>
       </c>
       <c r="O35" t="n">
-        <v>750.6338219552235</v>
+        <v>1001.584149269846</v>
       </c>
       <c r="P35" t="n">
-        <v>9.81812301465925</v>
+        <v>846.4947642605139</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.373001498243866</v>
+        <v>559.3919772139952</v>
       </c>
       <c r="R35" t="n">
         <v>4.288819949892968</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>27.58468784525894</v>
+        <v>27.58468784525884</v>
       </c>
       <c r="J36" t="n">
-        <v>331.2880410089847</v>
+        <v>331.2880410089846</v>
       </c>
       <c r="K36" t="n">
-        <v>606.0804627027837</v>
+        <v>693.5085216082867</v>
       </c>
       <c r="L36" t="n">
         <v>7.93180624760862</v>
       </c>
       <c r="M36" t="n">
-        <v>9.256043771827535</v>
+        <v>9.25604377182799</v>
       </c>
       <c r="N36" t="n">
-        <v>9.501023708250614</v>
+        <v>9.501023708250386</v>
       </c>
       <c r="O36" t="n">
-        <v>8.691580517403054</v>
+        <v>8.691580517402599</v>
       </c>
       <c r="P36" t="n">
-        <v>6.975759628489868</v>
+        <v>6.975759628489641</v>
       </c>
       <c r="Q36" t="n">
-        <v>550.8640586885122</v>
+        <v>550.8640586885112</v>
       </c>
       <c r="R36" t="n">
-        <v>120.6244487559979</v>
+        <v>33.19638985049801</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>89.61949296512988</v>
       </c>
       <c r="K37" t="n">
-        <v>281.0919888986823</v>
+        <v>281.0919888986822</v>
       </c>
       <c r="L37" t="n">
-        <v>426.9874903592064</v>
+        <v>426.9874903592063</v>
       </c>
       <c r="M37" t="n">
-        <v>468.925899316811</v>
+        <v>468.9258993168111</v>
       </c>
       <c r="N37" t="n">
         <v>451.4126929070815</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J38" t="n">
-        <v>5.794809977072035</v>
+        <v>445.4460094244639</v>
       </c>
       <c r="K38" t="n">
         <v>851.4629906911371</v>
@@ -37554,7 +37554,7 @@
         <v>11.98860575132539</v>
       </c>
       <c r="N38" t="n">
-        <v>1149.284597397242</v>
+        <v>790.741616470737</v>
       </c>
       <c r="O38" t="n">
         <v>1001.584149269846</v>
@@ -37563,7 +37563,7 @@
         <v>846.4947642605139</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.48122001913089</v>
+        <v>7.373001498243866</v>
       </c>
       <c r="R38" t="n">
         <v>4.288819949892968</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.25774525893803</v>
+        <v>27.58468784525884</v>
       </c>
       <c r="J39" t="n">
-        <v>3.451349123921531</v>
+        <v>331.2880410089845</v>
       </c>
       <c r="K39" t="n">
-        <v>5.898905375582316</v>
+        <v>693.5085216082867</v>
       </c>
       <c r="L39" t="n">
-        <v>962.2769980461971</v>
+        <v>7.93180624760862</v>
       </c>
       <c r="M39" t="n">
         <v>9.25604377182799</v>
@@ -37642,10 +37642,10 @@
         <v>6.975759628489641</v>
       </c>
       <c r="Q39" t="n">
-        <v>550.864058688511</v>
+        <v>550.8640586885112</v>
       </c>
       <c r="R39" t="n">
-        <v>120.6244487559979</v>
+        <v>33.19638985049801</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J41" t="n">
         <v>445.4460094244639</v>
@@ -37785,16 +37785,16 @@
         <v>851.4629906911371</v>
       </c>
       <c r="L41" t="n">
-        <v>10.77440875956108</v>
+        <v>1096.693566590732</v>
       </c>
       <c r="M41" t="n">
-        <v>1180.72379283269</v>
+        <v>11.98860575132539</v>
       </c>
       <c r="N41" t="n">
-        <v>1145.987082787929</v>
+        <v>238.7226407549856</v>
       </c>
       <c r="O41" t="n">
-        <v>11.50367798670868</v>
+        <v>1001.584149269846</v>
       </c>
       <c r="P41" t="n">
         <v>846.4947642605139</v>
@@ -37879,10 +37879,10 @@
         <v>6.975759628489641</v>
       </c>
       <c r="Q42" t="n">
-        <v>463.4359997830113</v>
+        <v>550.8640586885112</v>
       </c>
       <c r="R42" t="n">
-        <v>120.6244487559979</v>
+        <v>33.19638985049801</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.219575303042948</v>
+        <v>2.21957530304295</v>
       </c>
       <c r="J44" t="n">
         <v>445.4460094244639</v>
@@ -38022,10 +38022,10 @@
         <v>8.684918006108774</v>
       </c>
       <c r="L44" t="n">
-        <v>10.77440875956108</v>
+        <v>1096.693566590732</v>
       </c>
       <c r="M44" t="n">
-        <v>1180.72379283269</v>
+        <v>11.98860575132539</v>
       </c>
       <c r="N44" t="n">
         <v>1149.284597397242</v>
@@ -38037,10 +38037,10 @@
         <v>846.4947642605143</v>
       </c>
       <c r="Q44" t="n">
-        <v>408.7920640065731</v>
+        <v>320.7454015870126</v>
       </c>
       <c r="R44" t="n">
-        <v>4.288819949892968</v>
+        <v>175.151511619647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>331.2880410089845</v>
       </c>
       <c r="K45" t="n">
-        <v>5.898905375582331</v>
+        <v>693.5085216082867</v>
       </c>
       <c r="L45" t="n">
-        <v>608.1133635748133</v>
+        <v>7.93180624760862</v>
       </c>
       <c r="M45" t="n">
         <v>9.25604377182799</v>
@@ -38116,7 +38116,7 @@
         <v>6.975759628489641</v>
       </c>
       <c r="Q45" t="n">
-        <v>550.864058688511</v>
+        <v>463.4359997830113</v>
       </c>
       <c r="R45" t="n">
         <v>120.6244487559979</v>
